--- a/biology/Botanique/Mirb/Mirb..xlsx
+++ b/biology/Botanique/Mirb/Mirb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles François Brisseau de Mirbel, né le 27 mars 1776 à Paris et mort le 12 septembre 1854 à Champerret, est un botaniste et homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 20 ans, il devient aide-naturaliste au Muséum national d'histoire naturelle. Il publie en 1802, un important Traité d'anatomie et de physiologie végétales qui le fait considérer comme le père de la cytologie et de la physiologie végétale. En 1803, il obtient le poste d'intendant des jardins du Château de Malmaison. Ses publications lui valent, en 1808, d'entrer à l'Académie des sciences et d'obtenir la chaire de botanique de la Sorbonne.
 À la Restauration, son ami Élie Decazes, alors ministre de l'Intérieur, lui offre un poste de secrétaire général. Mais la chute du gouvernement en 1829, marque la fin de ses ambitions politique et il retrouve une chaire au Muséum national d'histoire naturelle.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire naturelle, générale et particulière de plantes, 1802-1806
 Exposition de la théorie de l'organisation végétale, 1809
